--- a/python/ilin/Error t1=6 t2=2.xlsx
+++ b/python/ilin/Error t1=6 t2=2.xlsx
@@ -481,45 +481,29 @@
           <t>τ1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>6.00e+00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6.00e+00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.00e+00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-1.01e-06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.00e+00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.000267</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>6.00e+00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.7e-05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.00384</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -528,45 +512,29 @@
           <t>τ2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2.00e+00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2.00e+00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.00e+00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-1.44e-05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.00e+00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-0.000695</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2.00e+00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.000152</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.008489999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -575,45 +543,29 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5.00e-05</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5.00e-05</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.00e-05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-6.78e-05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.00e-05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.04e-05</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>5.00e-05</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="B4" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.000126</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -622,45 +574,29 @@
           <t>α</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1.00e+00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.00e+00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.00e+00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.000135</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.00e+00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.000122</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1.00e+00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.000156</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.009480000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/python/ilin/Error t1=6 t2=2.xlsx
+++ b/python/ilin/Error t1=6 t2=2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Guess</t>
+          <t>Fitted 1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 1</t>
+          <t>% Error</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Fitted 2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>% Error</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Fitted 2</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>% Error</t>
+          <t>Fitted 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Fitted 3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>% Error</t>
         </is>
@@ -488,22 +483,19 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
-        <v>4.7e-05</v>
-      </c>
       <c r="F2" t="n">
+        <v>1.45e-07</v>
+      </c>
+      <c r="G2" t="n">
         <v>6</v>
       </c>
-      <c r="G2" t="n">
-        <v>-0.00384</v>
-      </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
+        <v>0.00316</v>
       </c>
     </row>
     <row r="3">
@@ -519,22 +511,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.000152</v>
-      </c>
       <c r="F3" t="n">
+        <v>9.990000000000001e-07</v>
+      </c>
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
-        <v>-0.008489999999999999</v>
-      </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
+        <v>-0.00225</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +539,19 @@
         <v>5e-05</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>5e-05</v>
       </c>
-      <c r="E4" t="n">
-        <v>-0.000126</v>
-      </c>
       <c r="F4" t="n">
+        <v>-1.37e-05</v>
+      </c>
+      <c r="G4" t="n">
         <v>5e-05</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.0068</v>
-      </c>
       <c r="H4" t="n">
-        <v>5e-05</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
+        <v>0.00203</v>
       </c>
     </row>
     <row r="5">
@@ -581,22 +567,87 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>-0.000156</v>
-      </c>
       <c r="F5" t="n">
+        <v>-1.11e-14</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
-        <v>-0.009480000000000001</v>
-      </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+        <v>-1.11e-14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2060000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>480000</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1360000</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SSv</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10500</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2450</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6940</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/python/ilin/Error t1=6 t2=2.xlsx
+++ b/python/ilin/Error t1=6 t2=2.xlsx
@@ -483,19 +483,19 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.000193</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>1.45e-07</v>
+        <v>0.000801</v>
       </c>
       <c r="G2" t="n">
         <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00316</v>
+        <v>-0.00122</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +511,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.000472</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>9.990000000000001e-07</v>
+        <v>-0.00137</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.00225</v>
+        <v>0.00105</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +539,19 @@
         <v>5e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.000504</v>
       </c>
       <c r="E4" t="n">
         <v>5e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.37e-05</v>
+        <v>0.00152</v>
       </c>
       <c r="G4" t="n">
         <v>5e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00203</v>
+        <v>-0.000767</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +567,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-3.26e-05</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.11e-14</v>
+        <v>-4.56e-05</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.11e-14</v>
+        <v>-5.95e-05</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2060000</v>
+        <v>1150000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>480000</v>
+        <v>4730000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1360000</v>
+        <v>1040000</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>10500</v>
+        <v>5890</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2450</v>
+        <v>24100</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6940</v>
+        <v>5320</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>

--- a/python/ilin/Error t1=6 t2=2.xlsx
+++ b/python/ilin/Error t1=6 t2=2.xlsx
@@ -483,19 +483,19 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.000193</v>
+        <v>-0.000344</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000801</v>
+        <v>-0.00345</v>
       </c>
       <c r="G2" t="n">
         <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.00122</v>
+        <v>0.00281</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +511,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000472</v>
+        <v>-0.00776</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00137</v>
+        <v>-0.0101</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00105</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +539,19 @@
         <v>5e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.000504</v>
+        <v>0.011</v>
       </c>
       <c r="E4" t="n">
         <v>5e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00152</v>
+        <v>0.0212</v>
       </c>
       <c r="G4" t="n">
         <v>5e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.000767</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +567,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.26e-05</v>
+        <v>-0.000188</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.56e-05</v>
+        <v>-2.51e-10</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>-5.95e-05</v>
+        <v>-9.13e-05</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1150000</v>
+        <v>1020000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4730000</v>
+        <v>1050000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1040000</v>
+        <v>696000</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5890</v>
+        <v>5220</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24100</v>
+        <v>5350</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5320</v>
+        <v>3550</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>

--- a/python/ilin/Error t1=6 t2=2.xlsx
+++ b/python/ilin/Error t1=6 t2=2.xlsx
@@ -483,19 +483,19 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.000344</v>
+        <v>0.000611</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00345</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00281</v>
+        <v>0.000509</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +511,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00776</v>
+        <v>0.000368</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0101</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0129</v>
+        <v>0.00126</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +539,19 @@
         <v>5e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.011</v>
+        <v>-0.00106</v>
       </c>
       <c r="E4" t="n">
         <v>5e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0212</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>5e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0244</v>
+        <v>-0.00279</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +567,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.000188</v>
+        <v>-8.4e-05</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.51e-10</v>
+        <v>-1e-08</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.13e-05</v>
+        <v>-1.72e-09</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +592,23 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>2270000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1060000</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>1020000</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1050000</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>696000</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5220</v>
+        <v>11600</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5350</v>
+        <v>5420</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3550</v>
+        <v>5210</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
